--- a/UnknownStations.xlsx
+++ b/UnknownStations.xlsx
@@ -59,48 +59,48 @@
     <t>Gulzarpet, Anantapur, India</t>
   </si>
   <si>
+    <t>14.675886</t>
+  </si>
+  <si>
     <t>77.593027</t>
   </si>
   <si>
-    <t>14.675886</t>
-  </si>
-  <si>
     <t>2024-01-27 11:00:00</t>
   </si>
   <si>
     <t>Anand Kala Kshetram, Rajamahendravaram, India</t>
   </si>
   <si>
+    <t>16.987287</t>
+  </si>
+  <si>
     <t>81.736318</t>
   </si>
   <si>
-    <t>16.987287</t>
-  </si>
-  <si>
     <t>2024-01-24 12:00:00</t>
   </si>
   <si>
     <t>Tirumala-APPCB, Tirupati, India</t>
   </si>
   <si>
+    <t>13.670000</t>
+  </si>
+  <si>
     <t>79.350000</t>
   </si>
   <si>
-    <t>13.670000</t>
-  </si>
-  <si>
     <t>PWD Grounds, Vijayawada, India</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>16.507014</t>
+  </si>
+  <si>
     <t>80.627767</t>
   </si>
   <si>
-    <t>16.507014</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -110,1861 +110,1974 @@
     <t>Naharlagun, Naharlagun, India</t>
   </si>
   <si>
+    <t>27.103358</t>
+  </si>
+  <si>
     <t>93.679645</t>
   </si>
   <si>
-    <t>27.103358</t>
-  </si>
-  <si>
     <t>2024-01-27 10:00:00</t>
   </si>
   <si>
     <t>Pan Bazaar, Guwahati, India</t>
   </si>
   <si>
+    <t>26.187500</t>
+  </si>
+  <si>
     <t>91.744194</t>
   </si>
   <si>
-    <t>26.187500</t>
-  </si>
-  <si>
     <t>Kharahiya Basti, Araria, India</t>
   </si>
   <si>
+    <t>26.146529</t>
+  </si>
+  <si>
     <t>87.454184</t>
   </si>
   <si>
-    <t>26.146529</t>
-  </si>
-  <si>
     <t>New DM Office, Arrah, India</t>
   </si>
   <si>
+    <t>25.562610</t>
+  </si>
+  <si>
     <t>84.663264</t>
   </si>
   <si>
-    <t>25.562610</t>
-  </si>
-  <si>
     <t>Gurdeo Nagar, Aurangabad, India</t>
   </si>
   <si>
+    <t>24.757460</t>
+  </si>
+  <si>
     <t>84.366208</t>
   </si>
   <si>
-    <t>24.757460</t>
-  </si>
-  <si>
     <t>DRCC Anandpur, Begusarai, India</t>
   </si>
   <si>
+    <t>25.444266</t>
+  </si>
+  <si>
     <t>86.140169</t>
   </si>
   <si>
-    <t>25.444266</t>
-  </si>
-  <si>
     <t>2023-12-22 18:00:00</t>
   </si>
   <si>
     <t>Kamalnath Nagar, Bettiah, India</t>
   </si>
   <si>
+    <t>26.803650</t>
+  </si>
+  <si>
     <t>84.519540</t>
   </si>
   <si>
-    <t>26.803650</t>
-  </si>
-  <si>
     <t>2024-01-25 19:00:00</t>
   </si>
   <si>
     <t>DM Office_Kachari Chowk, Bhagalpur, India</t>
   </si>
   <si>
+    <t>25.251013</t>
+  </si>
+  <si>
     <t>86.989001</t>
   </si>
   <si>
-    <t>25.251013</t>
-  </si>
-  <si>
     <t>D M Colony, Bihar Sharif, India</t>
   </si>
   <si>
+    <t>25.204762</t>
+  </si>
+  <si>
     <t>85.514960</t>
   </si>
   <si>
-    <t>25.204762</t>
-  </si>
-  <si>
     <t>Central Jail, Buxar, India</t>
   </si>
   <si>
+    <t>25.555605</t>
+  </si>
+  <si>
     <t>83.950942</t>
   </si>
   <si>
-    <t>25.555605</t>
-  </si>
-  <si>
     <t>2022-12-01 17:00:00</t>
   </si>
   <si>
     <t>Darshan Nagar, Chhapra, India</t>
   </si>
   <si>
+    <t>25.780826</t>
+  </si>
+  <si>
     <t>84.744677</t>
   </si>
   <si>
-    <t>25.780826</t>
-  </si>
-  <si>
     <t>Town Hall - Lal Bagh, Darbhanga, India</t>
   </si>
   <si>
+    <t>26.151460</t>
+  </si>
+  <si>
     <t>85.893420</t>
   </si>
   <si>
-    <t>26.151460</t>
-  </si>
-  <si>
     <t>2023-01-14 13:00:00</t>
   </si>
   <si>
     <t>Collectorate, Gaya, India</t>
   </si>
   <si>
+    <t>24.795500</t>
+  </si>
+  <si>
     <t>84.999400</t>
   </si>
   <si>
-    <t>24.795500</t>
-  </si>
-  <si>
     <t>Industrial Area, Hajipur, India</t>
   </si>
   <si>
+    <t>25.697189</t>
+  </si>
+  <si>
     <t>85.245900</t>
   </si>
   <si>
-    <t>25.697189</t>
-  </si>
-  <si>
     <t>Mirchaibari, Katihar, India</t>
   </si>
   <si>
+    <t>25.560083</t>
+  </si>
+  <si>
     <t>87.553265</t>
   </si>
   <si>
-    <t>25.560083</t>
-  </si>
-  <si>
     <t>SDM Office_Khagra, Kishanganj, India</t>
   </si>
   <si>
+    <t>26.088130</t>
+  </si>
+  <si>
     <t>87.938403</t>
   </si>
   <si>
-    <t>26.088130</t>
-  </si>
-  <si>
     <t>2024-01-26 13:00:00</t>
   </si>
   <si>
     <t>Gandak Colony, Motihari, India</t>
   </si>
   <si>
+    <t>26.630860</t>
+  </si>
+  <si>
     <t>84.900510</t>
   </si>
   <si>
-    <t>26.630860</t>
-  </si>
-  <si>
     <t>Town Hall, Munger, India</t>
   </si>
   <si>
+    <t>25.376776</t>
+  </si>
+  <si>
     <t>86.471523</t>
   </si>
   <si>
-    <t>25.376776</t>
-  </si>
-  <si>
     <t>Buddha Colony, Muzaffarpur, India</t>
   </si>
   <si>
+    <t>26.114420</t>
+  </si>
+  <si>
     <t>85.398130</t>
   </si>
   <si>
-    <t>26.114420</t>
-  </si>
-  <si>
     <t>IGSC Planetarium Complex, Patna, India</t>
   </si>
   <si>
+    <t>25.610367</t>
+  </si>
+  <si>
     <t>85.132714</t>
   </si>
   <si>
-    <t>25.610367</t>
-  </si>
-  <si>
     <t>Dangi Tola, Rajgir, India</t>
   </si>
   <si>
+    <t>25.032800</t>
+  </si>
+  <si>
     <t>85.419480</t>
   </si>
   <si>
-    <t>25.032800</t>
-  </si>
-  <si>
     <t>Police Line, Saharsa, India</t>
   </si>
   <si>
+    <t>25.892357</t>
+  </si>
+  <si>
     <t>86.590325</t>
   </si>
   <si>
-    <t>25.892357</t>
-  </si>
-  <si>
     <t>DM Office_Kasipur, Samastipur, India</t>
   </si>
   <si>
+    <t>25.859655</t>
+  </si>
+  <si>
     <t>85.779440</t>
   </si>
   <si>
-    <t>25.859655</t>
-  </si>
-  <si>
     <t>Chitragupta Nagar, Siwan, India</t>
   </si>
   <si>
+    <t>26.227166</t>
+  </si>
+  <si>
     <t>84.357043</t>
   </si>
   <si>
-    <t>26.227166</t>
-  </si>
-  <si>
     <t>Sector 22, Chandigarh, India</t>
   </si>
   <si>
+    <t>30.735567</t>
+  </si>
+  <si>
     <t>76.775714</t>
   </si>
   <si>
-    <t>30.735567</t>
-  </si>
-  <si>
     <t>Civic Center, Bhilai, India</t>
   </si>
   <si>
+    <t>21.185571</t>
+  </si>
+  <si>
     <t>81.343175</t>
   </si>
   <si>
-    <t>21.185571</t>
-  </si>
-  <si>
     <t>Mangala, Bilaspur, India</t>
   </si>
   <si>
+    <t>22.088150</t>
+  </si>
+  <si>
     <t>82.137370</t>
   </si>
   <si>
-    <t>22.088150</t>
-  </si>
-  <si>
     <t>Doon University, Dehradun, India</t>
   </si>
   <si>
+    <t>30.269444</t>
+  </si>
+  <si>
     <t>78.044167</t>
   </si>
   <si>
-    <t>30.269444</t>
-  </si>
-  <si>
     <t>New Delhi US Embassy, India (नई दिल्ली अमेरिकी दूतावास)</t>
   </si>
   <si>
+    <t>28.635760</t>
+  </si>
+  <si>
     <t>77.224450</t>
   </si>
   <si>
-    <t>28.635760</t>
-  </si>
-  <si>
-    <t>2024-01-27 12:00:00</t>
+    <t>2024-01-27 15:00:00</t>
   </si>
   <si>
     <t>Maninagar, Ahmedabad, India</t>
   </si>
   <si>
+    <t>23.002657</t>
+  </si>
+  <si>
     <t>72.591912</t>
   </si>
   <si>
-    <t>23.002657</t>
-  </si>
-  <si>
     <t>GIDC, Ankleshwar, India</t>
   </si>
   <si>
+    <t>21.613267</t>
+  </si>
+  <si>
     <t>73.010555</t>
   </si>
   <si>
-    <t>21.613267</t>
-  </si>
-  <si>
     <t>IIPHG Lekawada, Gandhinagar, India</t>
   </si>
   <si>
+    <t>23.243639</t>
+  </si>
+  <si>
     <t>72.689940</t>
   </si>
   <si>
-    <t>23.243639</t>
-  </si>
-  <si>
     <t>Phase-1 GIDC, Vapi, India</t>
   </si>
   <si>
+    <t>20.362421</t>
+  </si>
+  <si>
     <t>72.918013</t>
   </si>
   <si>
-    <t>20.362421</t>
-  </si>
-  <si>
     <t>Patti Mehar, Ambala, India</t>
   </si>
   <si>
+    <t>30.379589</t>
+  </si>
+  <si>
     <t>76.778328</t>
   </si>
   <si>
-    <t>30.379589</t>
-  </si>
-  <si>
     <t>Arya Nagar, Bahadurgarh, India</t>
   </si>
   <si>
+    <t>28.670100</t>
+  </si>
+  <si>
     <t>76.925400</t>
   </si>
   <si>
-    <t>28.670100</t>
-  </si>
-  <si>
     <t>H.B. Colony, Bhiwani, India</t>
   </si>
   <si>
+    <t>28.806223</t>
+  </si>
+  <si>
     <t>76.141105</t>
   </si>
   <si>
-    <t>28.806223</t>
-  </si>
-  <si>
     <t>Mini Secretariat, Charkhi Dadri, India</t>
   </si>
   <si>
+    <t>28.593883</t>
+  </si>
+  <si>
     <t>76.270653</t>
   </si>
   <si>
-    <t>28.593883</t>
-  </si>
-  <si>
     <t>Municipal Corporation Office, Dharuhera, India</t>
   </si>
   <si>
+    <t>28.206800</t>
+  </si>
+  <si>
     <t>76.799700</t>
   </si>
   <si>
-    <t>28.206800</t>
-  </si>
-  <si>
     <t>Sector16A Faridabad, Faridabad, India</t>
   </si>
   <si>
+    <t>28.408842</t>
+  </si>
+  <si>
     <t>77.309908</t>
   </si>
   <si>
-    <t>28.408842</t>
-  </si>
-  <si>
     <t>Huda Sector, Fatehabad, India</t>
   </si>
   <si>
+    <t>29.503664</t>
+  </si>
+  <si>
     <t>75.467934</t>
   </si>
   <si>
-    <t>29.503664</t>
-  </si>
-  <si>
     <t>Urban Estate-II, Hisar, India</t>
   </si>
   <si>
+    <t>29.140560</t>
+  </si>
+  <si>
     <t>75.744941</t>
   </si>
   <si>
-    <t>29.140560</t>
-  </si>
-  <si>
     <t>Police Lines, Jind, India</t>
   </si>
   <si>
+    <t>29.307814</t>
+  </si>
+  <si>
     <t>76.337619</t>
   </si>
   <si>
-    <t>29.307814</t>
-  </si>
-  <si>
     <t>Rishi Nagar, Kaithal, India</t>
   </si>
   <si>
+    <t>29.800600</t>
+  </si>
+  <si>
     <t>76.415500</t>
   </si>
   <si>
-    <t>29.800600</t>
-  </si>
-  <si>
     <t>Sector-12, Karnal, India</t>
   </si>
   <si>
+    <t>29.695300</t>
+  </si>
+  <si>
     <t>77.002700</t>
   </si>
   <si>
-    <t>29.695300</t>
-  </si>
-  <si>
     <t>Shastri Nagar, Narnaul, India</t>
   </si>
   <si>
+    <t>28.060249</t>
+  </si>
+  <si>
     <t>76.113115</t>
   </si>
   <si>
-    <t>28.060249</t>
-  </si>
-  <si>
     <t>Shyam Nagar, Palwal, India</t>
   </si>
   <si>
+    <t>28.148556</t>
+  </si>
+  <si>
     <t>77.332067</t>
   </si>
   <si>
-    <t>28.148556</t>
-  </si>
-  <si>
     <t>Sector 6 Panchkula, Panchkula, India</t>
   </si>
   <si>
+    <t>30.705778</t>
+  </si>
+  <si>
     <t>76.853181</t>
   </si>
   <si>
-    <t>30.705778</t>
-  </si>
-  <si>
     <t>MD University, Rohtak, Rohtak, India</t>
   </si>
   <si>
+    <t>28.870083</t>
+  </si>
+  <si>
     <t>76.620500</t>
   </si>
   <si>
-    <t>28.870083</t>
-  </si>
-  <si>
     <t>2020-01-13 04:00:00</t>
   </si>
   <si>
     <t>F-Block, Sirsa, India</t>
   </si>
   <si>
+    <t>29.536400</t>
+  </si>
+  <si>
     <t>75.015800</t>
   </si>
   <si>
-    <t>29.536400</t>
-  </si>
-  <si>
     <t>Murthal, Sonipat, India</t>
   </si>
   <si>
+    <t>29.027200</t>
+  </si>
+  <si>
     <t>77.062100</t>
   </si>
   <si>
-    <t>29.027200</t>
-  </si>
-  <si>
     <t>Gobind Pura, Yamuna Nagar, India</t>
   </si>
   <si>
+    <t>30.148057</t>
+  </si>
+  <si>
     <t>77.289347</t>
   </si>
   <si>
-    <t>30.148057</t>
-  </si>
-  <si>
     <t>HIMUDA Complex Phase-1, Baddi, India</t>
   </si>
   <si>
+    <t>30.943887</t>
+  </si>
+  <si>
     <t>76.801991</t>
   </si>
   <si>
-    <t>30.943887</t>
-  </si>
-  <si>
     <t>Rajbagh, Srinagar, India</t>
   </si>
   <si>
+    <t>34.066206</t>
+  </si>
+  <si>
     <t>74.819820</t>
   </si>
   <si>
-    <t>34.066206</t>
-  </si>
-  <si>
     <t>2024-01-01 09:00:00</t>
   </si>
   <si>
     <t>Tata Stadium, Jorapokhar, India</t>
   </si>
   <si>
+    <t>23.707909</t>
+  </si>
+  <si>
     <t>86.414670</t>
   </si>
   <si>
-    <t>23.707909</t>
-  </si>
-  <si>
     <t>Vidayagiri, Bagalkot, India</t>
   </si>
   <si>
+    <t>16.172806</t>
+  </si>
+  <si>
     <t>75.659694</t>
   </si>
   <si>
-    <t>16.172806</t>
-  </si>
-  <si>
     <t>Ramteerth Nagar, Belgaum, India</t>
   </si>
   <si>
+    <t>15.888653</t>
+  </si>
+  <si>
     <t>74.541751</t>
   </si>
   <si>
-    <t>15.888653</t>
-  </si>
-  <si>
     <t>Hombegowda Nagar, Bengaluru, India</t>
   </si>
   <si>
+    <t>12.938539</t>
+  </si>
+  <si>
     <t>77.590100</t>
   </si>
   <si>
-    <t>12.938539</t>
-  </si>
-  <si>
     <t>Kalyana Nagara, Chikkamagaluru, India</t>
   </si>
   <si>
+    <t>13.328028</t>
+  </si>
+  <si>
     <t>75.797056</t>
   </si>
   <si>
-    <t>13.328028</t>
-  </si>
-  <si>
     <t>Panchal Nagar, Gadag, India</t>
   </si>
   <si>
+    <t>15.411456</t>
+  </si>
+  <si>
     <t>75.638133</t>
   </si>
   <si>
-    <t>15.411456</t>
-  </si>
-  <si>
     <t>2024-01-27 06:00:00</t>
   </si>
   <si>
     <t>B.Katihalli, Hassan, India</t>
   </si>
   <si>
+    <t>13.008556</t>
+  </si>
+  <si>
     <t>76.125258</t>
   </si>
   <si>
-    <t>13.008556</t>
-  </si>
-  <si>
     <t>2024-01-25 22:00:00</t>
   </si>
   <si>
     <t>Ashwini Nagar, Haveri, India</t>
   </si>
   <si>
+    <t>14.791800</t>
+  </si>
+  <si>
     <t>75.389600</t>
   </si>
   <si>
-    <t>14.791800</t>
-  </si>
-  <si>
     <t>Deshpande Nagar, Hubballi, India</t>
   </si>
   <si>
+    <t>15.351773</t>
+  </si>
+  <si>
     <t>75.140726</t>
   </si>
   <si>
-    <t>15.351773</t>
-  </si>
-  <si>
     <t>Lal Bahadur Shastri Nagar, Kalaburagi, India</t>
   </si>
   <si>
+    <t>17.321993</t>
+  </si>
+  <si>
     <t>76.822628</t>
   </si>
   <si>
-    <t>17.321993</t>
-  </si>
-  <si>
     <t>Tamaka Ind. Area, Kolar, India</t>
   </si>
   <si>
+    <t>13.127629</t>
+  </si>
+  <si>
     <t>78.157012</t>
   </si>
   <si>
-    <t>13.127629</t>
-  </si>
-  <si>
     <t>Diwator Nagar, Koppal, India</t>
   </si>
   <si>
+    <t>15.347630</t>
+  </si>
+  <si>
     <t>76.181767</t>
   </si>
   <si>
-    <t>15.347630</t>
-  </si>
-  <si>
     <t>Stuart Hill, Madikeri, India</t>
   </si>
   <si>
+    <t>12.415911</t>
+  </si>
+  <si>
     <t>75.735050</t>
   </si>
   <si>
-    <t>12.415911</t>
-  </si>
-  <si>
     <t>Kadri, Mangalore, India</t>
   </si>
   <si>
+    <t>12.889250</t>
+  </si>
+  <si>
     <t>74.853000</t>
   </si>
   <si>
-    <t>12.889250</t>
-  </si>
-  <si>
     <t>Haji Colony, Raichur, India</t>
   </si>
   <si>
+    <t>16.208139</t>
+  </si>
+  <si>
     <t>77.348417</t>
   </si>
   <si>
-    <t>16.208139</t>
-  </si>
-  <si>
     <t>2024-01-23 11:00:00</t>
   </si>
   <si>
     <t>Vinoba Nagara, Shivamogga, India</t>
   </si>
   <si>
+    <t>13.940000</t>
+  </si>
+  <si>
     <t>75.555917</t>
   </si>
   <si>
-    <t>13.940000</t>
-  </si>
-  <si>
     <t>Brahmagiri, Udupi, India</t>
   </si>
   <si>
+    <t>13.341944</t>
+  </si>
+  <si>
     <t>74.746944</t>
   </si>
   <si>
-    <t>13.341944</t>
-  </si>
-  <si>
     <t>Ibrahimpur, Vijayapura, India</t>
   </si>
   <si>
+    <t>16.802639</t>
+  </si>
+  <si>
     <t>75.722694</t>
   </si>
   <si>
-    <t>16.802639</t>
-  </si>
-  <si>
     <t>Collector Office, Yadgir, India</t>
   </si>
   <si>
+    <t>16.760200</t>
+  </si>
+  <si>
     <t>77.142800</t>
   </si>
   <si>
-    <t>16.760200</t>
-  </si>
-  <si>
     <t>Thavakkara, Kannur, India</t>
   </si>
   <si>
+    <t>11.875000</t>
+  </si>
+  <si>
     <t>75.373200</t>
   </si>
   <si>
-    <t>11.875000</t>
-  </si>
-  <si>
     <t>Kera, Kochi, Kochi Prefecture, Japan (介良高知市)</t>
   </si>
   <si>
+    <t>33.548962</t>
+  </si>
+  <si>
     <t>133.598795</t>
   </si>
   <si>
-    <t>33.548962</t>
-  </si>
-  <si>
-    <t>2024-01-27 15:00:00</t>
+    <t>2024-01-27 18:00:00</t>
   </si>
   <si>
     <t>Polayathode, Kollam, India</t>
   </si>
   <si>
+    <t>8.878700</t>
+  </si>
+  <si>
     <t>76.607300</t>
   </si>
   <si>
-    <t>8.878700</t>
-  </si>
-  <si>
     <t>Palayam, Kozhikode, India</t>
   </si>
   <si>
+    <t>11.249077</t>
+  </si>
+  <si>
     <t>75.784371</t>
   </si>
   <si>
-    <t>11.249077</t>
-  </si>
-  <si>
     <t>Plammoodu, Thiruvananthapuram, India</t>
   </si>
   <si>
+    <t>8.514909</t>
+  </si>
+  <si>
     <t>76.943588</t>
   </si>
   <si>
-    <t>8.514909</t>
-  </si>
-  <si>
     <t>Corporation Ground, Thrissur, India</t>
   </si>
   <si>
+    <t>10.532400</t>
+  </si>
+  <si>
     <t>76.215900</t>
   </si>
   <si>
-    <t>10.532400</t>
-  </si>
-  <si>
     <t>T T Nagar, Bhopal, India</t>
   </si>
   <si>
+    <t>23.233584</t>
+  </si>
+  <si>
     <t>77.400574</t>
   </si>
   <si>
-    <t>23.233584</t>
-  </si>
-  <si>
     <t>Shrivastav Colony, Damoh, India</t>
   </si>
   <si>
+    <t>23.817487</t>
+  </si>
+  <si>
     <t>79.446246</t>
   </si>
   <si>
-    <t>23.817487</t>
-  </si>
-  <si>
     <t>2024-01-22 16:00:00</t>
   </si>
   <si>
     <t>Bhopal Chauraha, Dewas, India</t>
   </si>
   <si>
+    <t>22.968259</t>
+  </si>
+  <si>
     <t>76.064118</t>
   </si>
   <si>
-    <t>22.968259</t>
-  </si>
-  <si>
     <t>2024-01-26 19:00:00</t>
   </si>
   <si>
     <t>Phool Bagh, Gwalior, India</t>
   </si>
   <si>
+    <t>26.210536</t>
+  </si>
+  <si>
     <t>78.171000</t>
   </si>
   <si>
-    <t>26.210536</t>
-  </si>
-  <si>
     <t>Marhatal, Jabalpur, India</t>
   </si>
   <si>
+    <t>23.168606</t>
+  </si>
+  <si>
     <t>79.932247</t>
   </si>
   <si>
-    <t>23.168606</t>
-  </si>
-  <si>
     <t>Sahilara, Maihar, India</t>
   </si>
   <si>
+    <t>24.261301</t>
+  </si>
+  <si>
     <t>80.723178</t>
   </si>
   <si>
-    <t>24.261301</t>
-  </si>
-  <si>
     <t>Sector-D Industrial Area, Mandideep, India</t>
   </si>
   <si>
+    <t>23.108440</t>
+  </si>
+  <si>
     <t>77.511428</t>
   </si>
   <si>
-    <t>23.108440</t>
-  </si>
-  <si>
     <t>2024-01-25 17:00:00</t>
   </si>
   <si>
     <t>Sector-2 Industrial Area, Pithampur, India</t>
   </si>
   <si>
+    <t>22.624758</t>
+  </si>
+  <si>
     <t>75.675238</t>
   </si>
   <si>
-    <t>22.624758</t>
-  </si>
-  <si>
     <t>Shasthri Nagar, Ratlam, India</t>
   </si>
   <si>
+    <t>23.331731</t>
+  </si>
+  <si>
     <t>75.045981</t>
   </si>
   <si>
-    <t>23.331731</t>
-  </si>
-  <si>
     <t>Deen Dayal Nagar, Sagar, India</t>
   </si>
   <si>
+    <t>23.864016</t>
+  </si>
+  <si>
     <t>78.802893</t>
   </si>
   <si>
-    <t>23.864016</t>
-  </si>
-  <si>
     <t>Bandhavgar Colony, Satna, India</t>
   </si>
   <si>
+    <t>24.584344</t>
+  </si>
+  <si>
     <t>80.854941</t>
   </si>
   <si>
-    <t>24.584344</t>
-  </si>
-  <si>
     <t>Mahakaleshwar Temple, Ujjain, India</t>
   </si>
   <si>
+    <t>23.182719</t>
+  </si>
+  <si>
     <t>75.768218</t>
   </si>
   <si>
-    <t>23.182719</t>
-  </si>
-  <si>
     <t>Khadakpada, Kalyan, India</t>
   </si>
   <si>
+    <t>19.252920</t>
+  </si>
+  <si>
     <t>73.142019</t>
   </si>
   <si>
-    <t>19.252920</t>
-  </si>
-  <si>
     <t>MIDC Khutala, Chandrapur, India</t>
   </si>
   <si>
+    <t>19.977530</t>
+  </si>
+  <si>
     <t>79.233709</t>
   </si>
   <si>
-    <t>19.977530</t>
-  </si>
-  <si>
     <t>Mumbai US Consulate, India (मुंबई अमेरिकी वाणिज्य दूतावास)</t>
   </si>
   <si>
+    <t>19.072830</t>
+  </si>
+  <si>
     <t>72.882607</t>
   </si>
   <si>
-    <t>19.072830</t>
-  </si>
-  <si>
     <t>Opp GPO Civil Lines, Nagpur, India</t>
   </si>
   <si>
+    <t>21.152875</t>
+  </si>
+  <si>
     <t>79.051753</t>
   </si>
   <si>
-    <t>21.152875</t>
-  </si>
-  <si>
     <t>Gangapur Road, Nashik, India</t>
   </si>
   <si>
+    <t>20.007328</t>
+  </si>
+  <si>
     <t>73.776243</t>
   </si>
   <si>
-    <t>20.007328</t>
-  </si>
-  <si>
     <t>2024-01-27 07:00:00</t>
   </si>
   <si>
     <t>Nerul, Navi Mumbai, India</t>
   </si>
   <si>
+    <t>19.008751</t>
+  </si>
+  <si>
     <t>73.016620</t>
   </si>
   <si>
-    <t>19.008751</t>
-  </si>
-  <si>
     <t>Shivajinagar, Pune, Pune, India</t>
   </si>
   <si>
+    <t>18.529603</t>
+  </si>
+  <si>
     <t>73.849586</t>
   </si>
   <si>
-    <t>18.529603</t>
-  </si>
-  <si>
     <t>2021-11-15 06:00:00</t>
   </si>
   <si>
     <t>Solapur, Solapur, India</t>
   </si>
   <si>
+    <t>17.659919</t>
+  </si>
+  <si>
     <t>75.906391</t>
   </si>
   <si>
-    <t>17.659919</t>
-  </si>
-  <si>
     <t>Mulund West, Mumbai, India</t>
   </si>
   <si>
+    <t>19.175000</t>
+  </si>
+  <si>
     <t>72.941900</t>
   </si>
   <si>
-    <t>19.175000</t>
-  </si>
-  <si>
     <t>Vasai West, Mumbai, India</t>
   </si>
   <si>
+    <t>19.383200</t>
+  </si>
+  <si>
     <t>72.820400</t>
   </si>
   <si>
-    <t>19.383200</t>
-  </si>
-  <si>
     <t>DM College of Science, Imphal, India</t>
   </si>
   <si>
+    <t>24.820739</t>
+  </si>
+  <si>
     <t>93.942308</t>
   </si>
   <si>
-    <t>24.820739</t>
-  </si>
-  <si>
     <t>JN Stadium, Shillong, India</t>
   </si>
   <si>
+    <t>25.580342</t>
+  </si>
+  <si>
     <t>91.894257</t>
   </si>
   <si>
-    <t>25.580342</t>
-  </si>
-  <si>
     <t>Sikulpuikawn, Aizawl, India</t>
   </si>
   <si>
+    <t>23.717634</t>
+  </si>
+  <si>
     <t>92.719284</t>
   </si>
   <si>
-    <t>23.717634</t>
-  </si>
-  <si>
     <t>PWD Juction, Kohima, India</t>
   </si>
   <si>
+    <t>25.663541</t>
+  </si>
+  <si>
     <t>94.098988</t>
   </si>
   <si>
-    <t>25.663541</t>
-  </si>
-  <si>
     <t>GM Office, Brajrajnagar, India</t>
   </si>
   <si>
+    <t>21.800500</t>
+  </si>
+  <si>
     <t>83.839698</t>
   </si>
   <si>
-    <t>21.800500</t>
-  </si>
-  <si>
     <t>Talcher Coalfields, Talcher, India</t>
   </si>
   <si>
+    <t>20.936071</t>
+  </si>
+  <si>
     <t>85.170702</t>
   </si>
   <si>
-    <t>20.936071</t>
-  </si>
-  <si>
     <t>Jawahar Nagar, Puducherry, India</t>
   </si>
   <si>
+    <t>11.930900</t>
+  </si>
+  <si>
     <t>79.802700</t>
   </si>
   <si>
-    <t>11.930900</t>
-  </si>
-  <si>
     <t>Golden Temple, Amritsar, India</t>
   </si>
   <si>
+    <t>31.620000</t>
+  </si>
+  <si>
     <t>74.876512</t>
   </si>
   <si>
-    <t>31.620000</t>
-  </si>
-  <si>
     <t>Hardev Nagar, Bathinda, India</t>
   </si>
   <si>
+    <t>30.233011</t>
+  </si>
+  <si>
     <t>74.907758</t>
   </si>
   <si>
-    <t>30.233011</t>
-  </si>
-  <si>
     <t>Civil Line, Jalandhar, India</t>
   </si>
   <si>
+    <t>31.321907</t>
+  </si>
+  <si>
     <t>75.578914</t>
   </si>
   <si>
-    <t>31.321907</t>
-  </si>
-  <si>
     <t>Kalal Majra, Khanna, India</t>
   </si>
   <si>
+    <t>30.736056</t>
+  </si>
+  <si>
     <t>76.209694</t>
   </si>
   <si>
-    <t>30.736056</t>
-  </si>
-  <si>
     <t>Punjab Agricultural University, Ludhiana, India</t>
   </si>
   <si>
+    <t>30.902800</t>
+  </si>
+  <si>
     <t>75.808600</t>
   </si>
   <si>
-    <t>30.902800</t>
-  </si>
-  <si>
     <t>Model Town, Patiala, India</t>
   </si>
   <si>
+    <t>30.349388</t>
+  </si>
+  <si>
     <t>76.366642</t>
   </si>
   <si>
-    <t>30.349388</t>
-  </si>
-  <si>
     <t>Ratanpura, Rupnagar, India</t>
   </si>
   <si>
+    <t>31.032545</t>
+  </si>
+  <si>
     <t>76.562305</t>
   </si>
   <si>
-    <t>31.032545</t>
-  </si>
-  <si>
     <t>Civil Lines, Ajmer, India</t>
   </si>
   <si>
+    <t>26.470859</t>
+  </si>
+  <si>
     <t>74.646594</t>
   </si>
   <si>
-    <t>26.470859</t>
-  </si>
-  <si>
     <t>Moti Doongri, Alwar, India</t>
   </si>
   <si>
+    <t>27.554793</t>
+  </si>
+  <si>
     <t>76.611536</t>
   </si>
   <si>
-    <t>27.554793</t>
-  </si>
-  <si>
     <t>RIICO Ind. Area III, Bhiwadi, India</t>
   </si>
   <si>
+    <t>28.194909</t>
+  </si>
+  <si>
     <t>76.862296</t>
   </si>
   <si>
-    <t>28.194909</t>
-  </si>
-  <si>
     <t>Tulle centre, France</t>
   </si>
   <si>
+    <t>45.262667</t>
+  </si>
+  <si>
     <t>1.762833</t>
   </si>
   <si>
-    <t>45.262667</t>
-  </si>
-  <si>
     <t>Police Commissionerate, Jaipur, India</t>
   </si>
   <si>
+    <t>26.916409</t>
+  </si>
+  <si>
     <t>75.799490</t>
   </si>
   <si>
-    <t>26.916409</t>
-  </si>
-  <si>
     <t>Collectorate, Jodhpur, India</t>
   </si>
   <si>
+    <t>26.268249</t>
+  </si>
+  <si>
     <t>73.019385</t>
   </si>
   <si>
-    <t>26.268249</t>
-  </si>
-  <si>
     <t>2024-01-26 22:00:00</t>
   </si>
   <si>
     <t>Shrinath Puram, Kota, India</t>
   </si>
   <si>
+    <t>25.143890</t>
+  </si>
+  <si>
     <t>75.821256</t>
   </si>
   <si>
-    <t>25.143890</t>
-  </si>
-  <si>
     <t>Indira Colony Vistar, Pali, India</t>
   </si>
   <si>
+    <t>25.771061</t>
+  </si>
+  <si>
     <t>73.340227</t>
   </si>
   <si>
-    <t>25.771061</t>
-  </si>
-  <si>
     <t>Ashok Nagar, Udaipur, India</t>
   </si>
   <si>
+    <t>24.588617</t>
+  </si>
+  <si>
     <t>73.632140</t>
   </si>
   <si>
-    <t>24.588617</t>
-  </si>
-  <si>
     <t>Zero Point GICI, Gangtok, India</t>
   </si>
   <si>
+    <t>27.338530</t>
+  </si>
+  <si>
     <t>88.614099</t>
   </si>
   <si>
-    <t>27.338530</t>
-  </si>
-  <si>
     <t>Chennai US Consulate, Chennai, India (चेन्नई अमेरिकी वाणिज्य दूतावास)</t>
   </si>
   <si>
+    <t>13.087840</t>
+  </si>
+  <si>
     <t>80.278473</t>
   </si>
   <si>
-    <t>13.087840</t>
-  </si>
-  <si>
     <t>SIDCO Kurichi, Coimbatore, India</t>
   </si>
   <si>
+    <t>10.942451</t>
+  </si>
+  <si>
     <t>76.978996</t>
   </si>
   <si>
-    <t>10.942451</t>
-  </si>
-  <si>
     <t>2023-07-21 11:00:00</t>
   </si>
   <si>
     <t>Mendonsa Colony, Dindigul, India</t>
   </si>
   <si>
+    <t>10.358535</t>
+  </si>
+  <si>
     <t>77.984321</t>
   </si>
   <si>
-    <t>10.358535</t>
-  </si>
-  <si>
     <t>2023-07-25 10:00:00</t>
   </si>
   <si>
     <t>SIPCOT Phase-1, Hosur, India</t>
   </si>
   <si>
+    <t>12.746998</t>
+  </si>
+  <si>
     <t>77.813811</t>
   </si>
   <si>
-    <t>12.746998</t>
-  </si>
-  <si>
     <t>2023-12-07 11:00:00</t>
   </si>
   <si>
     <t>Bombay Castel, Ooty, India</t>
   </si>
   <si>
+    <t>11.406829</t>
+  </si>
+  <si>
     <t>76.713897</t>
   </si>
   <si>
-    <t>11.406829</t>
-  </si>
-  <si>
     <t>2024-01-27 08:00:00</t>
   </si>
   <si>
     <t>Chalai Bazaar, Ramanathapuram, India</t>
   </si>
   <si>
+    <t>9.363990</t>
+  </si>
+  <si>
     <t>78.831977</t>
   </si>
   <si>
-    <t>9.363990</t>
-  </si>
-  <si>
     <t>Salem, Oregon, USA</t>
   </si>
   <si>
+    <t>44.943114</t>
+  </si>
+  <si>
     <t>-123.005934</t>
   </si>
   <si>
-    <t>44.943114</t>
-  </si>
-  <si>
-    <t>2024-01-26 23:00:00</t>
+    <t>2024-01-27 02:00:00</t>
   </si>
   <si>
     <t>Meelavittan, Thoothukudi, India</t>
   </si>
   <si>
+    <t>8.816428</t>
+  </si>
+  <si>
     <t>78.099039</t>
   </si>
   <si>
-    <t>8.816428</t>
-  </si>
-  <si>
     <t>Kumaran College, Tirupur, India</t>
   </si>
   <si>
+    <t>11.097360</t>
+  </si>
+  <si>
     <t>77.322867</t>
   </si>
   <si>
-    <t>11.097360</t>
-  </si>
-  <si>
     <t>2024-01-27 09:00:00</t>
   </si>
   <si>
     <t>Hyderabad US Consulate, India (हैदराबाद अमेरिकी वाणिज्य दूतावास)</t>
   </si>
   <si>
+    <t>17.384050</t>
+  </si>
+  <si>
     <t>78.456360</t>
   </si>
   <si>
-    <t>17.384050</t>
-  </si>
-  <si>
     <t>Bardowali, Agartala, India</t>
   </si>
   <si>
+    <t>23.817550</t>
+  </si>
+  <si>
     <t>91.272697</t>
   </si>
   <si>
-    <t>23.817550</t>
-  </si>
-  <si>
     <t>Sanjay Palace, Agra, India</t>
   </si>
   <si>
+    <t>27.198658</t>
+  </si>
+  <si>
     <t>78.005981</t>
   </si>
   <si>
-    <t>27.198658</t>
-  </si>
-  <si>
     <t>Sardar Patel Inter College, Baghpat, India</t>
   </si>
   <si>
+    <t>28.964949</t>
+  </si>
+  <si>
     <t>77.278761</t>
   </si>
   <si>
-    <t>28.964949</t>
-  </si>
-  <si>
     <t>Rajendra Nagar, Bareilly, India</t>
   </si>
   <si>
+    <t>28.389109</t>
+  </si>
+  <si>
     <t>79.429637</t>
   </si>
   <si>
-    <t>28.389109</t>
-  </si>
-  <si>
     <t>Yamunapuram, Bulandshahr, India</t>
   </si>
   <si>
+    <t>28.406963</t>
+  </si>
+  <si>
     <t>77.849831</t>
   </si>
   <si>
-    <t>28.406963</t>
-  </si>
-  <si>
     <t>Vibhab Nagar, Firozabad, India</t>
   </si>
   <si>
+    <t>27.159400</t>
+  </si>
+  <si>
     <t>78.395300</t>
   </si>
   <si>
-    <t>27.159400</t>
-  </si>
-  <si>
     <t>Sanjay Nagar, Ghaziabad, India</t>
   </si>
   <si>
+    <t>28.685382</t>
+  </si>
+  <si>
     <t>77.453839</t>
   </si>
   <si>
-    <t>28.685382</t>
-  </si>
-  <si>
     <t>Madan Mohan Malaviya University of Technology, Gorakhpur, India</t>
   </si>
   <si>
+    <t>26.730136</t>
+  </si>
+  <si>
     <t>83.433859</t>
   </si>
   <si>
-    <t>26.730136</t>
-  </si>
-  <si>
     <t>Knowledge Park - III, Greater Noida, India</t>
   </si>
   <si>
+    <t>28.472720</t>
+  </si>
+  <si>
     <t>77.482000</t>
   </si>
   <si>
-    <t>28.472720</t>
-  </si>
-  <si>
     <t>2024-01-25 18:00:00</t>
   </si>
   <si>
     <t>Anand Vihar, Hapur, India</t>
   </si>
   <si>
+    <t>28.725645</t>
+  </si>
+  <si>
     <t>77.749675</t>
   </si>
   <si>
-    <t>28.725645</t>
-  </si>
-  <si>
     <t>Shivaji Nagar, Jhansi, India</t>
   </si>
   <si>
+    <t>25.454700</t>
+  </si>
+  <si>
     <t>78.603900</t>
   </si>
   <si>
-    <t>25.454700</t>
-  </si>
-  <si>
     <t>FTI Kidwai Nagar, Kanpur, India</t>
   </si>
   <si>
+    <t>26.428282</t>
+  </si>
+  <si>
     <t>80.327067</t>
   </si>
   <si>
-    <t>26.428282</t>
-  </si>
-  <si>
     <t>Kalindi Kunj, Khurja, India</t>
   </si>
   <si>
+    <t>28.234893</t>
+  </si>
+  <si>
     <t>77.868300</t>
   </si>
   <si>
-    <t>28.234893</t>
-  </si>
-  <si>
     <t>B R Ambedkar University, Lucknow, India</t>
   </si>
   <si>
+    <t>26.766433</t>
+  </si>
+  <si>
     <t>80.927299</t>
   </si>
   <si>
-    <t>26.766433</t>
-  </si>
-  <si>
     <t>Pallavpuram Phase 2, Meerut, India</t>
   </si>
   <si>
+    <t>29.063510</t>
+  </si>
+  <si>
     <t>77.709723</t>
   </si>
   <si>
-    <t>29.063510</t>
-  </si>
-  <si>
     <t>Jigar Colony, Moradabad, India</t>
   </si>
   <si>
+    <t>28.856664</t>
+  </si>
+  <si>
     <t>78.772638</t>
   </si>
   <si>
-    <t>28.856664</t>
-  </si>
-  <si>
     <t>New Mandi, Muzaffarnagar, India</t>
   </si>
   <si>
+    <t>29.472351</t>
+  </si>
+  <si>
     <t>77.719403</t>
   </si>
   <si>
-    <t>29.472351</t>
-  </si>
-  <si>
     <t>Sector - 125, Noida, India</t>
   </si>
   <si>
+    <t>28.544761</t>
+  </si>
+  <si>
     <t>77.323126</t>
   </si>
   <si>
-    <t>28.544761</t>
-  </si>
-  <si>
     <t>Maldahiya, Varanasi, India</t>
   </si>
   <si>
+    <t>25.323930</t>
+  </si>
+  <si>
     <t>82.996870</t>
   </si>
   <si>
-    <t>25.323930</t>
-  </si>
-  <si>
     <t>Omex Eternity, Vrindavan, India</t>
   </si>
   <si>
+    <t>27.571409</t>
+  </si>
+  <si>
     <t>77.655757</t>
   </si>
   <si>
-    <t>27.571409</t>
-  </si>
-  <si>
     <t>Asansol Court Area, Asansol, India</t>
   </si>
   <si>
+    <t>23.685297</t>
+  </si>
+  <si>
     <t>86.945968</t>
   </si>
   <si>
-    <t>23.685297</t>
-  </si>
-  <si>
     <t>Sidhu Kanhu Indoor Stadium, Durgapur, India</t>
   </si>
   <si>
+    <t>23.540435</t>
+  </si>
+  <si>
     <t>87.289222</t>
   </si>
   <si>
-    <t>23.540435</t>
-  </si>
-  <si>
     <t>Haldia, Haldia, India</t>
   </si>
   <si>
+    <t>22.060470</t>
+  </si>
+  <si>
     <t>88.109737</t>
   </si>
   <si>
-    <t>22.060470</t>
-  </si>
-  <si>
     <t>2023-11-11 02:00:00</t>
   </si>
   <si>
     <t>Victoria, Kolkata, India</t>
   </si>
   <si>
+    <t>22.544808</t>
+  </si>
+  <si>
     <t>88.340369</t>
   </si>
   <si>
-    <t>22.544808</t>
-  </si>
-  <si>
     <t>Kolkata US Consulate, India (कोलकाता अमेरिकी वाणिज्य दूतावास)</t>
   </si>
   <si>
+    <t>22.562630</t>
+  </si>
+  <si>
     <t>88.363037</t>
   </si>
   <si>
-    <t>22.562630</t>
-  </si>
-  <si>
     <t>Ward-32 Bapupara, Siliguri, India</t>
   </si>
   <si>
+    <t>26.688305</t>
+  </si>
+  <si>
     <t>88.412668</t>
   </si>
   <si>
-    <t>26.688305</t>
-  </si>
-  <si>
-    <t>Amaravati</t>
-  </si>
-  <si>
-    <t>Chittoor</t>
-  </si>
-  <si>
-    <t>Kadapa</t>
-  </si>
-  <si>
-    <t>Visakhapatnam</t>
-  </si>
-  <si>
-    <t>Byrnihat</t>
-  </si>
-  <si>
-    <t>Nagaon</t>
-  </si>
-  <si>
-    <t>Nalbari</t>
-  </si>
-  <si>
-    <t>Silchar</t>
-  </si>
-  <si>
-    <t>Sivasagar</t>
-  </si>
-  <si>
-    <t>Manguraha</t>
-  </si>
-  <si>
-    <t>Purnia</t>
-  </si>
-  <si>
-    <t>Sasaram</t>
-  </si>
-  <si>
-    <t>Chhal</t>
-  </si>
-  <si>
-    <t>Korba</t>
-  </si>
-  <si>
-    <t>Kunjemura</t>
-  </si>
-  <si>
-    <t>Milupara</t>
-  </si>
-  <si>
-    <t>Tumidih</t>
-  </si>
-  <si>
-    <t>Nandesari</t>
-  </si>
-  <si>
-    <t>Surat</t>
-  </si>
-  <si>
-    <t>Vatva</t>
-  </si>
-  <si>
-    <t>Ballabgarh</t>
-  </si>
-  <si>
-    <t>Gurugram</t>
-  </si>
-  <si>
-    <t>Kurukshetra</t>
-  </si>
-  <si>
-    <t>Mandikhera</t>
-  </si>
-  <si>
-    <t>Manesar</t>
-  </si>
-  <si>
-    <t>Panipat</t>
-  </si>
-  <si>
-    <t>Dhanbad</t>
-  </si>
-  <si>
-    <t>Jorapokhar</t>
-  </si>
-  <si>
-    <t>Bidar</t>
-  </si>
-  <si>
-    <t>Chamarajanagar</t>
-  </si>
-  <si>
-    <t>Chikkaballapur</t>
-  </si>
-  <si>
-    <t>Davanagere</t>
-  </si>
-  <si>
-    <t>Dharwad</t>
-  </si>
-  <si>
-    <t>Karwar</t>
-  </si>
-  <si>
-    <t>Mysuru</t>
-  </si>
-  <si>
-    <t>Ramanagara</t>
-  </si>
-  <si>
-    <t>Tumakuru</t>
-  </si>
-  <si>
-    <t>Eloor</t>
-  </si>
-  <si>
-    <t>Ernakulam</t>
-  </si>
-  <si>
-    <t>Indore</t>
-  </si>
-  <si>
-    <t>Katni</t>
-  </si>
-  <si>
-    <t>Singrauli</t>
-  </si>
-  <si>
-    <t>Ahmednagar</t>
-  </si>
-  <si>
-    <t>Akola</t>
-  </si>
-  <si>
-    <t>Amravati</t>
-  </si>
-  <si>
-    <t>Badlapur</t>
-  </si>
-  <si>
-    <t>Belapur</t>
-  </si>
-  <si>
-    <t>Boisar</t>
-  </si>
-  <si>
-    <t>Dhule</t>
-  </si>
-  <si>
-    <t>Jalgaon</t>
-  </si>
-  <si>
-    <t>Jalna</t>
-  </si>
-  <si>
-    <t>Kolhapur</t>
-  </si>
-  <si>
-    <t>Latur</t>
-  </si>
-  <si>
-    <t>Mahad</t>
-  </si>
-  <si>
-    <t>Malegaon</t>
-  </si>
-  <si>
-    <t>Mira-Bhayandar</t>
-  </si>
-  <si>
-    <t>Nanded</t>
-  </si>
-  <si>
-    <t>Parbhani</t>
-  </si>
-  <si>
-    <t>Pimpri-Chinchwad</t>
-  </si>
-  <si>
-    <t>Sangli</t>
-  </si>
-  <si>
-    <t>Angul</t>
-  </si>
-  <si>
-    <t>Balasore</t>
-  </si>
-  <si>
-    <t>Barbil</t>
-  </si>
-  <si>
-    <t>Baripada</t>
-  </si>
-  <si>
-    <t>Bhubaneswar</t>
-  </si>
-  <si>
-    <t>Bileipada</t>
-  </si>
-  <si>
-    <t>Byasanagar</t>
-  </si>
-  <si>
-    <t>Cuttack</t>
-  </si>
-  <si>
-    <t>Keonjhar</t>
-  </si>
-  <si>
-    <t>Nayagarh</t>
-  </si>
-  <si>
-    <t>Rairangpur</t>
-  </si>
-  <si>
-    <t>Rourkela</t>
-  </si>
-  <si>
-    <t>Suakati</t>
-  </si>
-  <si>
-    <t>Tensa</t>
-  </si>
-  <si>
-    <t>Mandi Gobindgarh</t>
-  </si>
-  <si>
-    <t>Banswara</t>
-  </si>
-  <si>
-    <t>Baran</t>
-  </si>
-  <si>
-    <t>Barmer</t>
-  </si>
-  <si>
-    <t>Bharatpur</t>
-  </si>
-  <si>
-    <t>Bhilwara</t>
-  </si>
-  <si>
-    <t>Bikaner</t>
-  </si>
-  <si>
-    <t>Bundi</t>
-  </si>
-  <si>
-    <t>Chittorgarh</t>
-  </si>
-  <si>
-    <t>Dausa</t>
-  </si>
-  <si>
-    <t>Dholpur</t>
-  </si>
-  <si>
-    <t>Dungarpur</t>
-  </si>
-  <si>
-    <t>Hanumangarh</t>
-  </si>
-  <si>
-    <t>Jaisalmer</t>
-  </si>
-  <si>
-    <t>Jalore</t>
-  </si>
-  <si>
-    <t>Jhalawar</t>
-  </si>
-  <si>
-    <t>Jhunjhunu</t>
-  </si>
-  <si>
-    <t>Karauli</t>
-  </si>
-  <si>
-    <t>Nagaur</t>
-  </si>
-  <si>
-    <t>Pratapgarh</t>
-  </si>
-  <si>
-    <t>Rajsamand</t>
-  </si>
-  <si>
-    <t>Sawai Madhopur</t>
-  </si>
-  <si>
-    <t>Sikar</t>
-  </si>
-  <si>
-    <t>Sirohi</t>
-  </si>
-  <si>
-    <t>Sri Ganganagar</t>
-  </si>
-  <si>
-    <t>Tonk</t>
-  </si>
-  <si>
-    <t>Ariyalur</t>
-  </si>
-  <si>
-    <t>Chengalpattu</t>
-  </si>
-  <si>
-    <t>Cuddalore</t>
-  </si>
-  <si>
-    <t>Gummidipoondi</t>
-  </si>
-  <si>
-    <t>Kanchipuram</t>
-  </si>
-  <si>
-    <t>Palkalaiperur</t>
-  </si>
-  <si>
-    <t>Tiruchirappalli</t>
-  </si>
-  <si>
-    <t>Vellore</t>
-  </si>
-  <si>
-    <t>Virudhunagar</t>
-  </si>
-  <si>
-    <t>Prayagraj</t>
-  </si>
-  <si>
-    <t>Kashipur</t>
-  </si>
-  <si>
-    <t>Rishikesh</t>
-  </si>
-  <si>
-    <t>Barrackpore</t>
+    <t xml:space="preserve">Amaravati
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chittoor
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadapa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visakhapatnam
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byrnihat
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagaon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nalbari
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silchar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sivasagar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manguraha
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purnia
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasaram
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhal
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korba
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunjemura
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milupara
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumidih
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandesari
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surat
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vatva
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ballabgarh
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gurugram
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurukshetra
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandikhera
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manesar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panipat
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhanbad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorapokhar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bidar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chamarajanagar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikkaballapur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davanagere
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dharwad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karwar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mysuru
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramanagara
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tumakuru
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eloor
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernakulam
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indore
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katni
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singrauli
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmednagar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akola
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amravati
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badlapur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belapur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boisar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhule
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalgaon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalna
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolhapur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malegaon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mira-Bhayandar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanded
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parbhani
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pimpri-Chinchwad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sangli
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angul
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balasore
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbil
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baripada
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhubaneswar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bileipada
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byasanagar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuttack
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keonjhar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayagarh
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rairangpur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rourkela
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suakati
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tensa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandi Gobindgarh
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banswara
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baran
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barmer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharatpur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhilwara
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bikaner
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chittorgarh
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dausa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dholpur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dungarpur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanumangarh
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaisalmer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalore
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhalawar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhunjhunu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karauli
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagaur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratapgarh
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajsamand
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sawai Madhopur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirohi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Ganganagar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonk
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariyalur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chengalpattu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuddalore
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gummidipoondi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanchipuram
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palkalaiperur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiruchirappalli
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vellore
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virudhunagar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prayagraj
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kashipur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rishikesh
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrackpore
+</t>
   </si>
 </sst>
 </file>
@@ -3804,7 +3917,7 @@
         <v>121</v>
       </c>
       <c r="C34">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
         <v>122</v>
@@ -3816,7 +3929,7 @@
         <v>29</v>
       </c>
       <c r="G34">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H34" t="s">
         <v>29</v>
@@ -3825,13 +3938,13 @@
         <v>29</v>
       </c>
       <c r="J34">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="K34" t="s">
         <v>29</v>
       </c>
       <c r="L34">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M34" t="s">
         <v>29</v>
@@ -5784,7 +5897,7 @@
         <v>262</v>
       </c>
       <c r="C79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
         <v>263</v>
@@ -5796,22 +5909,22 @@
         <v>29</v>
       </c>
       <c r="G79">
-        <v>38.9</v>
+        <v>43</v>
       </c>
       <c r="H79">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="I79">
-        <v>36.8</v>
+        <v>35.2</v>
       </c>
       <c r="J79">
-        <v>1021.1</v>
+        <v>1021.9</v>
       </c>
       <c r="K79">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M79">
         <v>1.5</v>
@@ -6793,7 +6906,7 @@
         <v>323</v>
       </c>
       <c r="C102">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D102" t="s">
         <v>324</v>
@@ -6805,7 +6918,7 @@
         <v>29</v>
       </c>
       <c r="G102">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H102" t="s">
         <v>29</v>
@@ -6814,13 +6927,13 @@
         <v>29</v>
       </c>
       <c r="J102">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="K102" t="s">
         <v>29</v>
       </c>
       <c r="L102">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="M102" t="s">
         <v>29</v>
@@ -7937,7 +8050,7 @@
         <v>400</v>
       </c>
       <c r="C128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
         <v>401</v>
@@ -7949,19 +8062,19 @@
         <v>29</v>
       </c>
       <c r="G128">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="I128">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="J128">
         <v>1034.6</v>
       </c>
       <c r="K128">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L128" t="s">
         <v>29</v>
@@ -7970,7 +8083,7 @@
         <v>29</v>
       </c>
       <c r="N128" t="s">
-        <v>332</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -8245,7 +8358,7 @@
         <v>422</v>
       </c>
       <c r="C135">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D135" t="s">
         <v>423</v>
@@ -8257,7 +8370,7 @@
         <v>29</v>
       </c>
       <c r="G135">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H135" t="s">
         <v>29</v>
@@ -8266,13 +8379,13 @@
         <v>29</v>
       </c>
       <c r="J135">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="K135" t="s">
         <v>29</v>
       </c>
       <c r="L135">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M135" t="s">
         <v>29</v>
@@ -8530,7 +8643,7 @@
         <v>29</v>
       </c>
       <c r="J141">
-        <v>1022</v>
+        <v>1020.9</v>
       </c>
       <c r="K141" t="s">
         <v>29</v>
@@ -8641,7 +8754,7 @@
         <v>455</v>
       </c>
       <c r="C144">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D144" t="s">
         <v>456</v>
@@ -8653,7 +8766,7 @@
         <v>29</v>
       </c>
       <c r="G144">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H144" t="s">
         <v>29</v>
@@ -8662,13 +8775,13 @@
         <v>29</v>
       </c>
       <c r="J144">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="K144" t="s">
         <v>29</v>
       </c>
       <c r="L144">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M144" t="s">
         <v>29</v>
@@ -9785,7 +9898,7 @@
         <v>532</v>
       </c>
       <c r="C170">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D170" t="s">
         <v>533</v>
@@ -9797,7 +9910,7 @@
         <v>29</v>
       </c>
       <c r="G170">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H170" t="s">
         <v>29</v>
@@ -9806,13 +9919,13 @@
         <v>29</v>
       </c>
       <c r="J170">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="K170" t="s">
         <v>29</v>
       </c>
       <c r="L170">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M170" t="s">
         <v>29</v>
